--- a/Day_2.xlsx
+++ b/Day_2.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\OneDrive\Documents\Programming\Projects\AOC 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03654631-84CF-4007-B0B4-76A4837BF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{5F882414-99E5-40E4-815E-7A0B40B94C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="6630" windowWidth="28275" windowHeight="22905" xr2:uid="{3065E4D6-4510-4CAA-8500-70F3F938D1DB}"/>
+    <workbookView xWindow="30525" yWindow="3120" windowWidth="43005" windowHeight="27675" xr2:uid="{3065E4D6-4510-4CAA-8500-70F3F938D1DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
